--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,79 +191,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="48">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,67 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,67 +191,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="16">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
+  <x:cellStyleXfs count="28">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="28">
+  <x:cellStyleXfs count="32">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="36">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
+++ b/Data/Exports/Invoice 0000007.pdf_1-1.xlsx
@@ -191,7 +191,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="36">
+  <x:cellStyleXfs count="48">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
